--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -115,139 +115,142 @@
     <t>Endeva</t>
   </si>
   <si>
+    <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, Dem. Rep. Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Rep., Chad, Comoros, Dem. Rep. Congo, Congo, Cote d'Ivoire, Djibouti, Egypt, Eq. Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, S. Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Algeria, Bahrain, Egypt, Iran, Iraq, Israel, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, Guinea, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Albania, Armenia, Azerbaijan, Belarus, Georgia, Kazakhstan, Kosovo, Kyrgyzstan, Macedonia, Moldova, Montenegro, Russia, Serbia, Tajikistan, Turkmenistan, Ukraine, Uzbekistan, Argentina</t>
+  </si>
+  <si>
+    <t>Entrepreneurship School (Social Entrepreneurship)</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Enviu</t>
+  </si>
+  <si>
+    <t>Netherlands, Nairobi, Kenya, India, USA</t>
+  </si>
+  <si>
+    <t>Euforia</t>
+  </si>
+  <si>
+    <t>Switzerland, Rwanda, Egypt, Greece, Turkey, Austria, Netherlands, P. of Liechtenstein, France, Germany, Portugal, Colombia, Peru, Bolivia</t>
+  </si>
+  <si>
+    <t>European Social Innovation Competition</t>
+  </si>
+  <si>
+    <t>Iceland, Norway, Albania, Bosnia and Herz., Macedonia, Montenegro, Serbia, Turkey, Israel, Moldova, Switzerland, Faroe Islands, Ukraine, Tunisia, Georgia, Armenia</t>
+  </si>
+  <si>
+    <t>EY - Entrepreneur of the Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Indonesia, Philippines </t>
+  </si>
+  <si>
+    <t>Facebook Social Entrepreneurship Award</t>
+  </si>
+  <si>
+    <t>Fledge</t>
+  </si>
+  <si>
+    <t>Peru, Spain, Italy, Canada, USA</t>
+  </si>
+  <si>
+    <t>Fossil Foundation</t>
+  </si>
+  <si>
+    <t>Canada, USA, Ecuador, Zambia, Kenya, Nigeria, Italy, Switzerland, UK, Poland, India, Cambodia, Laos, China, Hong Kong, Taiwan</t>
+  </si>
+  <si>
+    <t>Global Social Entrepreneurship Network</t>
+  </si>
+  <si>
+    <t>Canada, USA, Europe, Chile, South Africa, Tanzania, Congo, Chad, Morocco, Israel, Cyprus, China, Dem. Rep. Korea, Thailand, Malaysia, Indonesia, Australia, New Zealand, Taiwan</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Online Courses (1= nur online, 2= beides)</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Global Social Venture Competition</t>
+  </si>
+  <si>
+    <t>Global Center for Social Entrepreneurship Networks (GCSEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halcyon </t>
+  </si>
+  <si>
+    <t>USA, Saudi Arabia, Dem. Rep. Korea</t>
+  </si>
+  <si>
+    <t>HKCSS Impact Incubator</t>
+  </si>
+  <si>
+    <t>Hult Prize</t>
+  </si>
+  <si>
+    <t>Impact Engine</t>
+  </si>
+  <si>
+    <t>Canada, USA</t>
+  </si>
+  <si>
+    <t>Makesense</t>
+  </si>
+  <si>
+    <t>USA, Canada, Mexico, Dominican Rep., Nicaragua, Guatemala, Trinidad and Tobago, Colombia, Argentina, Paraguay, Brazil, Europe, Morocco, Tunisia, South Africa, Australia, Lebanon, Mali, Burkina Faso, Cote d'Ivoire, Senegal, Togo, Uganda, Kenya, Egypt, Turkey, Armenia, Teheran, Nepal, India, China, Myanmar, Cambodia, Vietnam, Malaysia, Singapore, Indonesia, Philippines, Dem. Rep. Korea, Japan, New Zealand</t>
+  </si>
+  <si>
+    <t>MassChallenge</t>
+  </si>
+  <si>
+    <t>USA, Israel, Mexico, Switzerland, UK</t>
+  </si>
+  <si>
+    <t>Middlesex University London (Social Enterprise: Turning Ideas into Action)</t>
+  </si>
+  <si>
+    <t>Miller Center for Social Entrepreneurship - Global Social Benefit Institute</t>
+  </si>
+  <si>
+    <t>Ogunte</t>
+  </si>
+  <si>
+    <t>Orange Social Venture Prize</t>
+  </si>
+  <si>
+    <t>Morocco, Tunisia, Egypt, Senegal, Botswana, Liberia, cote d'ivoire, Cameroon, Mali, Guinea , Guinea-Bissau, Madagascar, Niger, Central African Rep., Dem. Rep. Congo, Jordan, Burkina Faso</t>
+  </si>
+  <si>
+    <t>Acumen</t>
+  </si>
+  <si>
+    <t>Schwab Foundation for Social Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Seakademie</t>
+  </si>
+  <si>
+    <t>Mexico, South Africa, China, Germany</t>
+  </si>
+  <si>
+    <t>SEED Initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia, India, Tanzania, Thailand, Uganda </t>
+  </si>
+  <si>
+    <t>Seedstars</t>
+  </si>
+  <si>
     <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, Dem. Rep. Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Rep., Chad, Comoros, Dem. Rep. Congo, Congo, Cote d’Ivoire, Djibouti, Egypt, Eq. Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, S. Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Algeria, Bahrain, Egypt, Iran, Iraq, Israel, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, Guinea, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Albania, Armenia, Azerbaijan, Belarus, Georgia, Kazakhstan, Kosovo, Kyrgyzstan, Macedonia, Moldova, Montenegro, Russia, Serbia, Tajikistan, Turkmenistan, Ukraine, Uzbekistan, Argentina</t>
-  </si>
-  <si>
-    <t>Entrepreneurship School (Social Entrepreneurship)</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>Enviu</t>
-  </si>
-  <si>
-    <t>Netherlands, Nairobi, Kenya, India, USA</t>
-  </si>
-  <si>
-    <t>Euforia</t>
-  </si>
-  <si>
-    <t>Switzerland, Rwanda, Egypt, Greece, Turkey, Austria, Netherlands, P. of Liechtenstein, France, Germany, Portugal, Colombia, Peru, Bolivia</t>
-  </si>
-  <si>
-    <t>European Social Innovation Competition</t>
-  </si>
-  <si>
-    <t>Iceland, Norway, Albania, Bosnia and Herz., Macedonia, Montenegro, Serbia, Turkey, Israel, Moldova, Switzerland, Faroe Islands, Ukraine, Tunisia, Georgia, Armenia</t>
-  </si>
-  <si>
-    <t>EY - Entrepreneur of the Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Indonesia, Philippines </t>
-  </si>
-  <si>
-    <t>Facebook Social Entrepreneurship Award</t>
-  </si>
-  <si>
-    <t>Fledge</t>
-  </si>
-  <si>
-    <t>Peru, Spain, Italy, Canada, USA</t>
-  </si>
-  <si>
-    <t>Fossil Foundation</t>
-  </si>
-  <si>
-    <t>Canada, USA, Ecuador, Zambia, Kenya, Nigeria, Italy, Switzerland, UK, Poland, India, Cambodia, Laos, China, Hong Kong, Taiwan</t>
-  </si>
-  <si>
-    <t>Global Social Entrepreneurship Network</t>
-  </si>
-  <si>
-    <t>Canada, USA, Europe, Chile, South Africa, Tanzania, Congo, Chad, Morocco, Israel, Cyprus, China, Dem. Rep. Korea, Thailand, Malaysia, Indonesia, Australia, New Zealand, Taiwan</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Online Courses (1= nur online, 2= beides)</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Global Social Venture Competition</t>
-  </si>
-  <si>
-    <t>Global Center for Social Entrepreneurship Networks (GCSEN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halcyon </t>
-  </si>
-  <si>
-    <t>USA, Saudi Arabia, Dem. Rep. Korea</t>
-  </si>
-  <si>
-    <t>HKCSS Impact Incubator</t>
-  </si>
-  <si>
-    <t>Hult Prize</t>
-  </si>
-  <si>
-    <t>Impact Engine</t>
-  </si>
-  <si>
-    <t>Canada, USA</t>
-  </si>
-  <si>
-    <t>Makesense</t>
-  </si>
-  <si>
-    <t>USA, Canada, Mexico, Dominican Rep., Nicaragua, Guatemala, Trinidad and Tobago, Colombia, Argentina, Paraguay, Brazil, Europe, Morocco, Tunisia, South Africa, Australia, Lebanon, Mali, Burkina Faso, Cote d'Ivoire, Senegal, Togo, Uganda, Kenya, Egypt, Turkey, Armenia, Teheran, Nepal, India, China, Myanmar, Cambodia, Vietnam, Malaysia, Singapore, Indonesia, Philippines, Dem. Rep. Korea, Japan, New Zealand</t>
-  </si>
-  <si>
-    <t>MassChallenge</t>
-  </si>
-  <si>
-    <t>USA, Israel, Mexico, Switzerland, UK</t>
-  </si>
-  <si>
-    <t>Middlesex University London (Social Enterprise: Turning Ideas into Action)</t>
-  </si>
-  <si>
-    <t>Miller Center for Social Entrepreneurship - Global Social Benefit Institute</t>
-  </si>
-  <si>
-    <t>Ogunte</t>
-  </si>
-  <si>
-    <t>Orange Social Venture Prize</t>
-  </si>
-  <si>
-    <t>Morocco, Tunisia, Egypt, Senegal, Botswana, Liberia, cote d'ivoire, Cameroon, Mali, Guinea , Guinea-Bissau, Madagascar, Niger, Central African Rep., Dem. Rep. Congo, Jordan, Burkina Faso</t>
-  </si>
-  <si>
-    <t>Acumen</t>
-  </si>
-  <si>
-    <t>Schwab Foundation for Social Entrepreneurship</t>
-  </si>
-  <si>
-    <t>Seakademie</t>
-  </si>
-  <si>
-    <t>Mexico, South Africa, China, Germany</t>
-  </si>
-  <si>
-    <t>SEED Initiative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia, India, Tanzania, Thailand, Uganda </t>
-  </si>
-  <si>
-    <t>Seedstars</t>
   </si>
   <si>
     <t>Segal Family Foundation</t>
@@ -2289,12 +2292,12 @@
         <v>1.0</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="4">
         <v>1.0</v>
@@ -2336,12 +2339,12 @@
         <v>0.0</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="4">
         <v>0.0</v>
@@ -2388,7 +2391,7 @@
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="4">
         <v>0.0</v>
@@ -2435,7 +2438,7 @@
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="4">
         <v>0.0</v>
@@ -2477,12 +2480,12 @@
         <v>0.0</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4">
         <v>0.0</v>
@@ -2573,7 +2576,7 @@
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="4">
         <v>0.0</v>
@@ -2615,12 +2618,12 @@
         <v>1.0</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="4">
         <v>0.0</v>
@@ -2662,12 +2665,12 @@
         <v>0.0</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="4">
         <v>0.0</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4">
         <v>0.0</v>
@@ -2761,7 +2764,7 @@
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="4">
         <v>1.0</v>
@@ -2803,12 +2806,12 @@
         <v>1.0</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="4">
         <v>0.0</v>
@@ -2850,12 +2853,12 @@
         <v>0.0</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" s="4">
         <v>0.0</v>
@@ -2897,12 +2900,12 @@
         <v>0.0</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B53" s="4">
         <v>1.0</v>
@@ -2949,7 +2952,7 @@
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="4">
         <v>1.0</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="4">
         <v>1.0</v>
@@ -3011,12 +3014,12 @@
         <v>0.0</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="4">
         <v>1.0</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="4">
         <v>1.0</v>
@@ -3110,7 +3113,7 @@
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" s="4">
         <v>1.0</v>
@@ -3152,12 +3155,12 @@
         <v>0.0</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="4">
         <v>1.0</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="4">
         <v>0.0</v>
@@ -3246,12 +3249,12 @@
         <v>0.0</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" s="4">
         <v>1.0</v>
@@ -3293,7 +3296,7 @@
         <v>0.0</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -3328,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>11</v>
@@ -3342,7 +3345,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63" s="4">
         <v>1.0</v>
@@ -3384,7 +3387,7 @@
         <v>0.0</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Makesense</t>
   </si>
   <si>
-    <t>USA, Canada, Mexico, Dominican Rep., Nicaragua, Guatemala, Trinidad and Tobago, Colombia, Argentina, Paraguay, Brazil, Europe, Morocco, Tunisia, South Africa, Australia, Lebanon, Mali, Burkina Faso, Cote d'Ivoire, Senegal, Togo, Uganda, Kenya, Egypt, Turkey, Armenia, Teheran, Nepal, India, China, Myanmar, Cambodia, Vietnam, Malaysia, Singapore, Indonesia, Philippines, Dem. Rep. Korea, Japan, New Zealand</t>
-  </si>
-  <si>
     <t>MassChallenge</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
   </si>
   <si>
     <t>Seedstars</t>
-  </si>
-  <si>
-    <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, Dem. Rep. Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Rep., Chad, Comoros, Dem. Rep. Congo, Congo, Cote d’Ivoire, Djibouti, Egypt, Eq. Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, S. Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Algeria, Bahrain, Egypt, Iran, Iraq, Israel, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, Guinea, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Albania, Armenia, Azerbaijan, Belarus, Georgia, Kazakhstan, Kosovo, Kyrgyzstan, Macedonia, Moldova, Montenegro, Russia, Serbia, Tajikistan, Turkmenistan, Ukraine, Uzbekistan, Argentina</t>
   </si>
   <si>
     <t>Segal Family Foundation</t>
@@ -1822,59 +1816,59 @@
         <v>1.0</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4">
         <v>0.0</v>
@@ -1921,7 +1915,7 @@
     </row>
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4">
         <v>1.0</v>
@@ -1968,7 +1962,7 @@
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4">
         <v>0.0</v>
@@ -2015,54 +2009,54 @@
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4">
         <v>0.0</v>
@@ -2109,7 +2103,7 @@
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4">
         <v>0.0</v>
@@ -2156,101 +2150,101 @@
     </row>
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="4">
         <v>1.0</v>
@@ -2292,12 +2286,12 @@
         <v>1.0</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="4">
         <v>1.0</v>
@@ -2339,12 +2333,12 @@
         <v>0.0</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4">
         <v>0.0</v>
@@ -2391,7 +2385,7 @@
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="4">
         <v>0.0</v>
@@ -2438,7 +2432,7 @@
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="4">
         <v>0.0</v>
@@ -2480,12 +2474,12 @@
         <v>0.0</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="4">
         <v>0.0</v>
@@ -2576,7 +2570,7 @@
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="4">
         <v>0.0</v>
@@ -2618,12 +2612,12 @@
         <v>1.0</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4">
         <v>0.0</v>
@@ -2665,12 +2659,12 @@
         <v>0.0</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" s="4">
         <v>0.0</v>
@@ -2717,7 +2711,7 @@
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" s="4">
         <v>0.0</v>
@@ -2764,7 +2758,7 @@
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="4">
         <v>1.0</v>
@@ -2806,12 +2800,12 @@
         <v>1.0</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="4">
         <v>0.0</v>
@@ -2853,12 +2847,12 @@
         <v>0.0</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" s="4">
         <v>0.0</v>
@@ -2900,12 +2894,12 @@
         <v>0.0</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" s="4">
         <v>1.0</v>
@@ -2952,7 +2946,7 @@
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="4">
         <v>1.0</v>
@@ -2972,7 +2966,7 @@
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="4">
         <v>1.0</v>
@@ -3014,12 +3008,12 @@
         <v>0.0</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="4">
         <v>1.0</v>
@@ -3066,7 +3060,7 @@
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" s="4">
         <v>1.0</v>
@@ -3113,7 +3107,7 @@
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" s="4">
         <v>1.0</v>
@@ -3155,12 +3149,12 @@
         <v>0.0</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" s="4">
         <v>1.0</v>
@@ -3207,7 +3201,7 @@
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B60" s="4">
         <v>0.0</v>
@@ -3249,12 +3243,12 @@
         <v>0.0</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" s="4">
         <v>1.0</v>
@@ -3296,7 +3290,7 @@
         <v>0.0</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -3331,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>11</v>
@@ -3345,7 +3339,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" s="4">
         <v>1.0</v>
@@ -3387,7 +3381,7 @@
         <v>0.0</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -58,7 +58,7 @@
     <t>Agora</t>
   </si>
   <si>
-    <t>Belize, Costa Rica, El Salvador, Guatemala, Honduras, Dominican Rep., Mexico, Nicaragua, Panama, Cuba, Haiti, Peru, Chile, Argentina, Brazil, Bolivia, Colombia, Ecuador, Guinea, Paraguay, Uruguay, Venezuela, Puerto Rico</t>
+    <t>Belize, Costa Rica, El Salvador, Guatemala, Honduras, Dominican Rep., Mexico, Nicaragua, Panama, Cuba, Haiti, Peru, Chile, Argentina, Brazil, Bolivia, Colombia, Ecuador, Paraguay, Uruguay, Venezuela, Puerto Rico</t>
   </si>
   <si>
     <t>Alfanar</t>
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="50" ht="19.5" customHeight="1">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="4">
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="4">
@@ -2851,7 +2851,7 @@
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="4">
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="53" ht="19.5" customHeight="1">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B53" s="4">
